--- a/Data/Reference_data/Stations_area_selections.xlsx
+++ b/Data/Reference_data/Stations_area_selections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwcc-my.sharepoint.com/personal/erica_levine_myfwc_com/Documents/R/Water-Quality-Processing-Data/Data/Reference_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\Water-Quality-Processing\Data\Reference_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB38F983-A95A-4E97-B22C-97F063C8D988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAA9085-1C59-4224-9A14-FFF91E372D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32595" yWindow="1380" windowWidth="20730" windowHeight="11835" xr2:uid="{098A9FBC-C928-409D-825A-4301BFC66B1A}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{098A9FBC-C928-409D-825A-4301BFC66B1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Site</t>
   </si>
@@ -51,19 +51,50 @@
   </si>
   <si>
     <t>Latitude</t>
+  </si>
+  <si>
+    <t>SL-N</t>
+  </si>
+  <si>
+    <t>SL-C</t>
+  </si>
+  <si>
+    <t>SL-S</t>
+  </si>
+  <si>
+    <t>LX-N</t>
+  </si>
+  <si>
+    <t>LX-S</t>
+  </si>
+  <si>
+    <t>CR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,8 +117,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,9 +146,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,7 +186,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -252,7 +292,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,7 +434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -402,138 +442,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE223D0D-1AE8-497D-8C0F-45DAA5BF719D}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>-82.662800000000004</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>27.7012</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
         <v>-82.680816666666672</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>27.653583333333334</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>-82.713233333333335</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>27.646066666666666</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>-82.692800000000005</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>27.736799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>-82.6096</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>27.842300000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>-82.681250000000006</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>27.676153330000002</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>-82.485416670000006</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>27.527216670000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>-82.524916669999996</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>27.496816670000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-80.278949999999995</v>
+      </c>
+      <c r="D10" s="2">
+        <v>27.220533333333332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-80.264099999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>27.211433333333332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-80.284533333333329</v>
+      </c>
+      <c r="D12" s="2">
+        <v>27.207650000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-80.243316666666672</v>
+      </c>
+      <c r="D13" s="2">
+        <v>27.212383333333332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-80.241550000000004</v>
+      </c>
+      <c r="D14" s="2">
+        <v>27.201450000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-80.2547</v>
+      </c>
+      <c r="D15" s="2">
+        <v>27.201599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-80.260599999999997</v>
+      </c>
+      <c r="D16" s="2">
+        <v>27.194849999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-80.269149999999996</v>
+      </c>
+      <c r="D17" s="2">
+        <v>27.187133333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-80.26121666666667</v>
+      </c>
+      <c r="D18" s="2">
+        <v>27.165816666666668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-80.128133333333338</v>
+      </c>
+      <c r="D19" s="2">
+        <v>26.9694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-80.127483333333331</v>
+      </c>
+      <c r="D20" s="2">
+        <v>26.970616666666668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-80.128100000000003</v>
+      </c>
+      <c r="D21" s="2">
+        <v>26.972833333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-80.118533333333332</v>
+      </c>
+      <c r="D22" s="2">
+        <v>26.942900000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-80.12133333333334</v>
+      </c>
+      <c r="D23" s="2">
+        <v>26.943833333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-80.120949999999993</v>
+      </c>
+      <c r="D24" s="2">
+        <v>26.942666666666668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-81.956100000000006</v>
+      </c>
+      <c r="D25" s="2">
+        <v>26.527149999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-81.97923333333334</v>
+      </c>
+      <c r="D26" s="2">
+        <v>26.513400000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-82.03273333333334</v>
+      </c>
+      <c r="D27" s="2">
+        <v>26.513816666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>-82.005600000000001</v>
+      </c>
+      <c r="D28" s="2">
+        <v>26.496283333333334</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Reference_data/Stations_area_selections.xlsx
+++ b/Data/Reference_data/Stations_area_selections.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\Water-Quality-Processing\Data\Reference_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAA9085-1C59-4224-9A14-FFF91E372D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1716E2F7-3F81-49FE-A74D-ECCB7CAF16F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{098A9FBC-C928-409D-825A-4301BFC66B1A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Site</t>
   </si>
@@ -69,13 +69,22 @@
   </si>
   <si>
     <t>CR</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>LW-R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +102,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -114,10 +129,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,9 +146,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9FB80AC7-D25C-4E9F-BE7F-413A93900896}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{8C32B67A-80AC-4083-8540-FFE36A763426}"/>
+    <cellStyle name="Percent 2" xfId="3" xr:uid="{C881BF8B-94BA-4CE7-911E-72D1CDE1127D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,9 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE223D0D-1AE8-497D-8C0F-45DAA5BF719D}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -843,6 +884,93 @@
         <v>26.496283333333334</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7">
+        <v>-80.043633333333332</v>
+      </c>
+      <c r="D29" s="7">
+        <v>26.669683333333332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="7">
+        <v>-80.040599999999998</v>
+      </c>
+      <c r="D30" s="7">
+        <v>26.647466666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="6">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>-80.040283333333335</v>
+      </c>
+      <c r="D31" s="7">
+        <v>26.597516666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2</v>
+      </c>
+      <c r="C32" s="9">
+        <v>-80.040549999999996</v>
+      </c>
+      <c r="D32" s="9">
+        <v>26.632566666666666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="8">
+        <v>3</v>
+      </c>
+      <c r="C33" s="9">
+        <v>-80.045000000000002</v>
+      </c>
+      <c r="D33" s="9">
+        <v>26.623999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4</v>
+      </c>
+      <c r="C34" s="9">
+        <v>-80.040833333333339</v>
+      </c>
+      <c r="D34" s="9">
+        <v>26.629816666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
